--- a/biology/Botanique/Ranunculus_glacialis/Ranunculus_glacialis.xlsx
+++ b/biology/Botanique/Ranunculus_glacialis/Ranunculus_glacialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ranunculus glacialis, la renoncule des glaciers ou caraline, est une espèce de plantes herbacées de la famille des Renonculacées, poussant sous des climats montagnard et subarctique.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La renoncule des glaciers se rencontre dans les étages subalpin, alpin et nival des montagnes d'Europe (Alpes, Pyrénées, Carpates et Sierra Nevada), dans la péninsule Scandinave, aux îles Féroé, à Jan Mayen, en Islande, au Svalbard et au Groenland oriental. C'est une des plantes à fleurs européennes poussant à la plus haute altitude puisqu'elle se rencontre jusqu'à plus de 4 000 mètres (en Suisse)[1]. Au Groenland, on peut la trouver jusqu'à la latitude de 77,4° ; plus au nord, ne subsistent que des plantes inférieures (mousses, lichens, algues). Dans ces conditions extrêmes, elle côtoie les glaciers, d'où son nom.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La renoncule des glaciers se rencontre dans les étages subalpin, alpin et nival des montagnes d'Europe (Alpes, Pyrénées, Carpates et Sierra Nevada), dans la péninsule Scandinave, aux îles Féroé, à Jan Mayen, en Islande, au Svalbard et au Groenland oriental. C'est une des plantes à fleurs européennes poussant à la plus haute altitude puisqu'elle se rencontre jusqu'à plus de 4 000 mètres (en Suisse). Au Groenland, on peut la trouver jusqu'à la latitude de 77,4° ; plus au nord, ne subsistent que des plantes inférieures (mousses, lichens, algues). Dans ces conditions extrêmes, elle côtoie les glaciers, d'où son nom.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Sous-espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une sous-espèce de la renoncule des glaciers, Ranunculus glacialis subsp. chamissonis pousse de part et d'autre du détroit de Béring.
 </t>
@@ -573,9 +589,11 @@
           <t>Usage médicinal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une étude ethnobotanique publiée par Françoise et Grégoire Nicollier en 1984 sur les plantes dans la vie quotidienne à Bagnes, cette plante (dénommée karlïnna dans le patois de cette région) était autrefois en France considérée comme bonne pour la circulation du sang (qu'elle était supposée liquéfier)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une étude ethnobotanique publiée par Françoise et Grégoire Nicollier en 1984 sur les plantes dans la vie quotidienne à Bagnes, cette plante (dénommée karlïnna dans le patois de cette région) était autrefois en France considérée comme bonne pour la circulation du sang (qu'elle était supposée liquéfier).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Statut et protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée "en danger" sur la liste rouge de l'INPN en région Aquitaine[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée "en danger" sur la liste rouge de l'INPN en région Aquitaine,.
 </t>
         </is>
       </c>
